--- a/ProjektPlan.xlsx
+++ b/ProjektPlan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kingmopser/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kingmopser/Bakir-s-Personal-Repo/StatProj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C572675-D296-D147-9A69-800413AFD27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9F602C-8AEC-6340-A365-4DD13DF48FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="M-Plan" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Action to be taken</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>JS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test </t>
+  </si>
+  <si>
+    <t>dd</t>
   </si>
 </sst>
 </file>
@@ -1213,7 +1219,7 @@
       <pane xSplit="11" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1284,12 +1290,20 @@
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" ht="46" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
-      <c r="B5" s="11"/>
+      <c r="B5" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="C5" s="21"/>
-      <c r="D5" s="11"/>
+      <c r="D5" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="E5" s="22"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="13"/>
+      <c r="F5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="H5" s="13"/>
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>

--- a/ProjektPlan.xlsx
+++ b/ProjektPlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kingmopser/Bakir-s-Personal-Repo/StatProj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9F602C-8AEC-6340-A365-4DD13DF48FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF8A13F-D3CC-684C-9DB0-774406608D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="M-Plan" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>Action to be taken</t>
   </si>
@@ -109,18 +109,52 @@
     <t>JS</t>
   </si>
   <si>
-    <t xml:space="preserve">test </t>
-  </si>
-  <si>
-    <t>dd</t>
+    <t>Discord Meeting</t>
+  </si>
+  <si>
+    <t>Aufgaben Verteilung</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Einleitung fürs Thema (Folien)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kernfragestellungen </t>
+  </si>
+  <si>
+    <t>Fragestellungen herausarbeiten, zusammenfassen</t>
+  </si>
+  <si>
+    <t>DN, PS, JS</t>
+  </si>
+  <si>
+    <t>Filtern</t>
+  </si>
+  <si>
+    <t>Datensatz Filtern und Tidy machen</t>
+  </si>
+  <si>
+    <t>Gliederung Pptx</t>
+  </si>
+  <si>
+    <t>Gliederung, Themeübersicht</t>
+  </si>
+  <si>
+    <t>DN, JS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -303,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -414,11 +448,123 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="39">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -746,111 +892,6 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -865,25 +906,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A4:M45" totalsRowShown="0" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A4:M45" totalsRowShown="0" headerRowDxfId="38">
   <autoFilter ref="A4:M45" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:M45">
     <sortCondition ref="I4:I45"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="No. 1" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Head Title" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="No.2" dataDxfId="20"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="activity" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="No.3" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Action to be taken" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Responsible" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="12" xr3:uid="{2720D8D3-0470-4F66-87D2-0ECA4DE5A2D9}" name="supported" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="done till" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{3BBDF049-A496-4FBF-B95C-F82306E46BC5}" name="PDCA" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Status" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="further action/ result" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Remarks" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="No. 1" dataDxfId="37"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Head Title" dataDxfId="36"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="No.2" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="activity" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="No.3" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Action to be taken" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Responsible" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="12" xr3:uid="{2720D8D3-0470-4F66-87D2-0ECA4DE5A2D9}" name="supported" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="done till" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="13" xr3:uid="{3BBDF049-A496-4FBF-B95C-F82306E46BC5}" name="PDCA" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Status" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="further action/ result" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Remarks" dataDxfId="16" totalsRowDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1219,7 +1260,7 @@
       <pane xSplit="11" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1289,7 +1330,9 @@
       </c>
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" ht="46" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
       <c r="B5" s="11" t="s">
         <v>24</v>
       </c>
@@ -1298,60 +1341,90 @@
         <v>25</v>
       </c>
       <c r="E5" s="22"/>
-      <c r="F5" s="11" t="s">
-        <v>25</v>
-      </c>
+      <c r="F5" s="11"/>
       <c r="G5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
+        <v>17</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="27">
+        <v>45230</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="K5" s="25" t="str">
         <f t="shared" ref="K5:K45" ca="1" si="0">IF(AND(J5="",I5=""),"K",IF(J5="lfd.","K",IF(J5="a","J",IF(AND(I5&lt;TODAY(),J5&lt;&gt;"a"),"L", "K"))))</f>
-        <v>K</v>
+        <v>J</v>
       </c>
       <c r="L5" s="28"/>
       <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="46" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="C6" s="21"/>
-      <c r="D6" s="11"/>
+      <c r="D6" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="E6" s="22"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="14"/>
+      <c r="G6" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
+      <c r="I6" s="14">
+        <v>45237</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="K6" s="25" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>K</v>
+        <v>J</v>
       </c>
       <c r="L6" s="11"/>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="1:13" ht="46" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="11"/>
+    <row r="7" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="C7" s="21"/>
-      <c r="D7" s="11"/>
+      <c r="D7" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="E7" s="22"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="13"/>
+      <c r="G7" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="H7" s="13"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
+      <c r="I7" s="14">
+        <v>45237</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="K7" s="25" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>K</v>
+        <v>J</v>
       </c>
       <c r="L7" s="11"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="1:13" ht="46" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>4</v>
+      </c>
       <c r="B8" s="11"/>
       <c r="C8" s="21"/>
       <c r="D8" s="11"/>
@@ -1359,47 +1432,70 @@
       <c r="F8" s="11"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="25" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>K</v>
-      </c>
+      <c r="I8" s="40"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="42"/>
       <c r="L8" s="11"/>
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13" ht="46" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="11"/>
+      <c r="A9" s="9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="C9" s="21"/>
-      <c r="D9" s="11"/>
+      <c r="D9" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="E9" s="22"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="13"/>
+      <c r="G9" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="H9" s="13"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
+      <c r="I9" s="14">
+        <v>45237</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="K9" s="25" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>K</v>
+        <v>J</v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13" ht="46" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="11"/>
+      <c r="A10" s="9">
+        <v>6</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="C10" s="21"/>
-      <c r="D10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="E10" s="22"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
+      <c r="G10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="14">
+        <v>45237</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="K10" s="25" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>K</v>
+        <f ca="1">IF(AND(J10="",I10=""),"K",IF(J10="lfd.","K",IF(J10="a","J",IF(AND(I10&lt;TODAY(),J10&lt;&gt;"a"),"L", "K"))))</f>
+        <v>J</v>
       </c>
       <c r="L10" s="11"/>
       <c r="M10" s="8"/>
@@ -2552,58 +2648,58 @@
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="K5:K35">
-    <cfRule type="cellIs" dxfId="38" priority="13" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="K5:K7 K9:K35">
+    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="equal">
       <formula>"J"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="equal">
       <formula>"K"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="15" stopIfTrue="1" operator="equal">
       <formula>"L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36">
-    <cfRule type="cellIs" dxfId="35" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="equal">
       <formula>"J"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
       <formula>"K"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" stopIfTrue="1" operator="equal">
       <formula>"L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K37">
-    <cfRule type="cellIs" dxfId="32" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="equal">
       <formula>"J"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
       <formula>"K"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" stopIfTrue="1" operator="equal">
       <formula>"L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K76">
-    <cfRule type="cellIs" dxfId="29" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
       <formula>"J"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
       <formula>"K"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="equal">
       <formula>"L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38:K75">
-    <cfRule type="cellIs" dxfId="26" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"J"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>"K"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="equal">
       <formula>"L"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ProjektPlan.xlsx
+++ b/ProjektPlan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kingmopser/Bakir-s-Personal-Repo/StatProj/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\philu\code-r\StatProj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF8A13F-D3CC-684C-9DB0-774406608D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A91E7E-550A-45FA-9444-CC2FEADC1AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4575" yWindow="945" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="M-Plan" sheetId="1" r:id="rId1"/>
@@ -145,16 +145,15 @@
     <t>Gliederung, Themeübersicht</t>
   </si>
   <si>
-    <t>DN, JS</t>
+    <t xml:space="preserve"> PS, DN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -337,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -451,120 +450,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="39">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -613,7 +504,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -664,7 +555,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -892,6 +783,111 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -906,32 +902,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A4:M45" totalsRowShown="0" headerRowDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A4:M45" totalsRowShown="0" headerRowDxfId="23">
   <autoFilter ref="A4:M45" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:M45">
     <sortCondition ref="I4:I45"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="No. 1" dataDxfId="37"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Head Title" dataDxfId="36"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="No.2" dataDxfId="35"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="activity" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="No.3" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Action to be taken" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Responsible" dataDxfId="28" totalsRowDxfId="27"/>
-    <tableColumn id="12" xr3:uid="{2720D8D3-0470-4F66-87D2-0ECA4DE5A2D9}" name="supported" dataDxfId="26" totalsRowDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="done till" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="13" xr3:uid="{3BBDF049-A496-4FBF-B95C-F82306E46BC5}" name="PDCA" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Status" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="further action/ result" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Remarks" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="No. 1" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Head Title" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="No.2" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="activity" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="No.3" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Action to be taken" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Responsible" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="12" xr3:uid="{2720D8D3-0470-4F66-87D2-0ECA4DE5A2D9}" name="supported" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="done till" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{3BBDF049-A496-4FBF-B95C-F82306E46BC5}" name="PDCA" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Status" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="further action/ result" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Remarks" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1260,27 +1256,27 @@
       <pane xSplit="11" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="6" style="2" customWidth="1"/>
-    <col min="6" max="6" width="45.6640625" customWidth="1"/>
-    <col min="7" max="8" width="12.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" customWidth="1"/>
-    <col min="11" max="11" width="14.5" customWidth="1"/>
-    <col min="12" max="12" width="57.83203125" customWidth="1"/>
-    <col min="13" max="13" width="77.6640625" customWidth="1"/>
+    <col min="6" max="6" width="45.7109375" customWidth="1"/>
+    <col min="7" max="8" width="12.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="57.85546875" customWidth="1"/>
+    <col min="13" max="13" width="77.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>9</v>
       </c>
@@ -1288,7 +1284,7 @@
         <v>45197</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="3" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1329,7 +1325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="3" customFormat="1" ht="46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="3" customFormat="1" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -1361,7 +1357,7 @@
       <c r="L5" s="28"/>
       <c r="M5" s="8"/>
     </row>
-    <row r="6" spans="1:13" ht="46" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>2</v>
       </c>
@@ -1391,7 +1387,7 @@
       <c r="L6" s="11"/>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>3</v>
       </c>
@@ -1421,7 +1417,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>4</v>
       </c>
@@ -1433,12 +1429,12 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="40"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="42"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="41"/>
       <c r="L8" s="11"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13" ht="46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>5</v>
       </c>
@@ -1468,7 +1464,7 @@
       <c r="L9" s="11"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:13" ht="46" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>6</v>
       </c>
@@ -1500,7 +1496,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="1:13" ht="46" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="11"/>
       <c r="C11" s="21"/>
@@ -1518,7 +1514,7 @@
       <c r="L11" s="11"/>
       <c r="M11" s="8"/>
     </row>
-    <row r="12" spans="1:13" ht="46" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="11"/>
       <c r="C12" s="21"/>
@@ -1536,7 +1532,7 @@
       <c r="L12" s="11"/>
       <c r="M12" s="8"/>
     </row>
-    <row r="13" spans="1:13" ht="46" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="11"/>
       <c r="C13" s="21"/>
@@ -1554,7 +1550,7 @@
       <c r="L13" s="11"/>
       <c r="M13" s="8"/>
     </row>
-    <row r="14" spans="1:13" ht="46" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="11"/>
       <c r="C14" s="21"/>
@@ -1572,7 +1568,7 @@
       <c r="L14" s="11"/>
       <c r="M14" s="8"/>
     </row>
-    <row r="15" spans="1:13" ht="46" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="11"/>
       <c r="C15" s="21"/>
@@ -1590,7 +1586,7 @@
       <c r="L15" s="11"/>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" spans="1:13" ht="46" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="11"/>
       <c r="C16" s="21"/>
@@ -1608,7 +1604,7 @@
       <c r="L16" s="11"/>
       <c r="M16" s="8"/>
     </row>
-    <row r="17" spans="1:13" ht="46" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="11"/>
       <c r="C17" s="10"/>
@@ -1626,7 +1622,7 @@
       <c r="L17" s="11"/>
       <c r="M17" s="8"/>
     </row>
-    <row r="18" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="11"/>
       <c r="C18" s="21"/>
@@ -1644,7 +1640,7 @@
       <c r="L18" s="11"/>
       <c r="M18" s="8"/>
     </row>
-    <row r="19" spans="1:13" ht="46" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="11"/>
       <c r="C19" s="21"/>
@@ -1662,7 +1658,7 @@
       <c r="L19" s="11"/>
       <c r="M19" s="8"/>
     </row>
-    <row r="20" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="11"/>
       <c r="C20" s="21"/>
@@ -1682,7 +1678,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="46" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="11"/>
       <c r="C21" s="21"/>
@@ -1700,7 +1696,7 @@
       <c r="L21" s="11"/>
       <c r="M21" s="8"/>
     </row>
-    <row r="22" spans="1:13" ht="46" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="11"/>
       <c r="C22" s="21"/>
@@ -1718,7 +1714,7 @@
       <c r="L22" s="11"/>
       <c r="M22" s="8"/>
     </row>
-    <row r="23" spans="1:13" ht="46" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="11"/>
       <c r="C23" s="21"/>
@@ -1736,7 +1732,7 @@
       <c r="L23" s="11"/>
       <c r="M23" s="8"/>
     </row>
-    <row r="24" spans="1:13" ht="46" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="11"/>
       <c r="C24" s="21"/>
@@ -1754,7 +1750,7 @@
       <c r="L24" s="11"/>
       <c r="M24" s="8"/>
     </row>
-    <row r="25" spans="1:13" ht="46" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="11"/>
       <c r="C25" s="21"/>
@@ -1772,7 +1768,7 @@
       <c r="L25" s="11"/>
       <c r="M25" s="8"/>
     </row>
-    <row r="26" spans="1:13" ht="46" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="11"/>
       <c r="C26" s="21"/>
@@ -1790,7 +1786,7 @@
       <c r="L26" s="11"/>
       <c r="M26" s="8"/>
     </row>
-    <row r="27" spans="1:13" ht="46" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="11"/>
       <c r="C27" s="21"/>
@@ -1808,7 +1804,7 @@
       <c r="L27" s="11"/>
       <c r="M27" s="8"/>
     </row>
-    <row r="28" spans="1:13" ht="46" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="11"/>
       <c r="C28" s="21"/>
@@ -1826,7 +1822,7 @@
       <c r="L28" s="11"/>
       <c r="M28" s="8"/>
     </row>
-    <row r="29" spans="1:13" ht="46" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="11"/>
       <c r="C29" s="21"/>
@@ -1844,7 +1840,7 @@
       <c r="L29" s="11"/>
       <c r="M29" s="8"/>
     </row>
-    <row r="30" spans="1:13" ht="46" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="11"/>
       <c r="C30" s="21"/>
@@ -1862,7 +1858,7 @@
       <c r="L30" s="11"/>
       <c r="M30" s="8"/>
     </row>
-    <row r="31" spans="1:13" ht="46" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="11"/>
       <c r="C31" s="21"/>
@@ -1880,7 +1876,7 @@
       <c r="L31" s="11"/>
       <c r="M31" s="8"/>
     </row>
-    <row r="32" spans="1:13" ht="46" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="11"/>
       <c r="C32" s="10"/>
@@ -1898,7 +1894,7 @@
       <c r="L32" s="23"/>
       <c r="M32" s="8"/>
     </row>
-    <row r="33" spans="1:13" ht="46" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="11"/>
       <c r="C33" s="21"/>
@@ -1916,7 +1912,7 @@
       <c r="L33" s="11"/>
       <c r="M33" s="8"/>
     </row>
-    <row r="34" spans="1:13" ht="46" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="11"/>
       <c r="C34" s="21"/>
@@ -1934,7 +1930,7 @@
       <c r="L34" s="26"/>
       <c r="M34" s="8"/>
     </row>
-    <row r="35" spans="1:13" ht="46" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="11"/>
       <c r="C35" s="21"/>
@@ -1952,7 +1948,7 @@
       <c r="L35" s="26"/>
       <c r="M35" s="8"/>
     </row>
-    <row r="36" spans="1:13" ht="46" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="11"/>
       <c r="C36" s="21"/>
@@ -1970,7 +1966,7 @@
       <c r="L36" s="26"/>
       <c r="M36" s="8"/>
     </row>
-    <row r="37" spans="1:13" ht="46" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="11"/>
       <c r="C37" s="21"/>
@@ -1988,7 +1984,7 @@
       <c r="L37" s="11"/>
       <c r="M37" s="8"/>
     </row>
-    <row r="38" spans="1:13" ht="46" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="11"/>
       <c r="C38" s="10"/>
@@ -2006,7 +2002,7 @@
       <c r="L38" s="11"/>
       <c r="M38" s="7"/>
     </row>
-    <row r="39" spans="1:13" ht="46" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="11"/>
       <c r="C39" s="21"/>
@@ -2024,7 +2020,7 @@
       <c r="L39" s="11"/>
       <c r="M39" s="8"/>
     </row>
-    <row r="40" spans="1:13" ht="46" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="11"/>
       <c r="C40" s="21"/>
@@ -2042,7 +2038,7 @@
       <c r="L40" s="11"/>
       <c r="M40" s="8"/>
     </row>
-    <row r="41" spans="1:13" ht="46" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="11"/>
       <c r="C41" s="21"/>
@@ -2060,7 +2056,7 @@
       <c r="L41" s="26"/>
       <c r="M41" s="8"/>
     </row>
-    <row r="42" spans="1:13" ht="46" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="11"/>
       <c r="C42" s="21"/>
@@ -2078,7 +2074,7 @@
       <c r="L42" s="26"/>
       <c r="M42" s="8"/>
     </row>
-    <row r="43" spans="1:13" ht="46" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
       <c r="B43" s="11"/>
       <c r="C43" s="21"/>
@@ -2096,7 +2092,7 @@
       <c r="L43" s="26"/>
       <c r="M43" s="8"/>
     </row>
-    <row r="44" spans="1:13" ht="46" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
       <c r="B44" s="11"/>
       <c r="C44" s="21"/>
@@ -2114,7 +2110,7 @@
       <c r="L44" s="26"/>
       <c r="M44" s="8"/>
     </row>
-    <row r="45" spans="1:13" ht="46" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="11"/>
       <c r="C45" s="21"/>
@@ -2132,7 +2128,7 @@
       <c r="L45" s="26"/>
       <c r="M45" s="8"/>
     </row>
-    <row r="46" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
       <c r="B46" s="30"/>
       <c r="C46" s="36"/>
@@ -2147,7 +2143,7 @@
       <c r="L46" s="39"/>
       <c r="M46" s="30"/>
     </row>
-    <row r="47" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A47" s="29"/>
       <c r="B47" s="30"/>
       <c r="C47" s="36"/>
@@ -2162,7 +2158,7 @@
       <c r="L47" s="39"/>
       <c r="M47" s="30"/>
     </row>
-    <row r="48" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A48" s="29"/>
       <c r="B48" s="30"/>
       <c r="C48" s="36"/>
@@ -2177,7 +2173,7 @@
       <c r="L48" s="39"/>
       <c r="M48" s="30"/>
     </row>
-    <row r="49" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A49" s="29"/>
       <c r="B49" s="30"/>
       <c r="C49" s="36"/>
@@ -2192,7 +2188,7 @@
       <c r="L49" s="39"/>
       <c r="M49" s="30"/>
     </row>
-    <row r="50" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A50" s="29"/>
       <c r="B50" s="30"/>
       <c r="C50" s="36"/>
@@ -2207,7 +2203,7 @@
       <c r="L50" s="39"/>
       <c r="M50" s="30"/>
     </row>
-    <row r="51" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A51" s="29"/>
       <c r="B51" s="30"/>
       <c r="C51" s="36"/>
@@ -2222,7 +2218,7 @@
       <c r="L51" s="39"/>
       <c r="M51" s="30"/>
     </row>
-    <row r="52" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A52" s="29"/>
       <c r="B52" s="30"/>
       <c r="C52" s="36"/>
@@ -2237,7 +2233,7 @@
       <c r="L52" s="39"/>
       <c r="M52" s="30"/>
     </row>
-    <row r="53" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A53" s="29"/>
       <c r="B53" s="30"/>
       <c r="C53" s="36"/>
@@ -2252,7 +2248,7 @@
       <c r="L53" s="39"/>
       <c r="M53" s="30"/>
     </row>
-    <row r="54" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A54" s="29"/>
       <c r="B54" s="30"/>
       <c r="C54" s="36"/>
@@ -2267,7 +2263,7 @@
       <c r="L54" s="39"/>
       <c r="M54" s="30"/>
     </row>
-    <row r="55" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A55" s="29"/>
       <c r="B55" s="30"/>
       <c r="C55" s="36"/>
@@ -2282,7 +2278,7 @@
       <c r="L55" s="39"/>
       <c r="M55" s="30"/>
     </row>
-    <row r="56" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A56" s="29"/>
       <c r="B56" s="30"/>
       <c r="C56" s="36"/>
@@ -2297,7 +2293,7 @@
       <c r="L56" s="39"/>
       <c r="M56" s="30"/>
     </row>
-    <row r="57" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A57" s="29"/>
       <c r="B57" s="30"/>
       <c r="C57" s="36"/>
@@ -2312,7 +2308,7 @@
       <c r="L57" s="39"/>
       <c r="M57" s="30"/>
     </row>
-    <row r="58" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A58" s="29"/>
       <c r="B58" s="30"/>
       <c r="C58" s="36"/>
@@ -2327,7 +2323,7 @@
       <c r="L58" s="39"/>
       <c r="M58" s="30"/>
     </row>
-    <row r="59" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A59" s="29"/>
       <c r="B59" s="30"/>
       <c r="C59" s="36"/>
@@ -2342,7 +2338,7 @@
       <c r="L59" s="39"/>
       <c r="M59" s="30"/>
     </row>
-    <row r="60" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A60" s="29"/>
       <c r="B60" s="30"/>
       <c r="C60" s="36"/>
@@ -2357,7 +2353,7 @@
       <c r="L60" s="39"/>
       <c r="M60" s="30"/>
     </row>
-    <row r="61" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A61" s="29"/>
       <c r="B61" s="30"/>
       <c r="C61" s="36"/>
@@ -2372,7 +2368,7 @@
       <c r="L61" s="39"/>
       <c r="M61" s="30"/>
     </row>
-    <row r="62" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A62" s="29"/>
       <c r="B62" s="30"/>
       <c r="C62" s="36"/>
@@ -2387,7 +2383,7 @@
       <c r="L62" s="39"/>
       <c r="M62" s="30"/>
     </row>
-    <row r="63" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A63" s="29"/>
       <c r="B63" s="30"/>
       <c r="C63" s="36"/>
@@ -2402,7 +2398,7 @@
       <c r="L63" s="39"/>
       <c r="M63" s="30"/>
     </row>
-    <row r="64" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A64" s="29"/>
       <c r="B64" s="30"/>
       <c r="C64" s="36"/>
@@ -2417,7 +2413,7 @@
       <c r="L64" s="39"/>
       <c r="M64" s="30"/>
     </row>
-    <row r="65" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A65" s="29"/>
       <c r="B65" s="30"/>
       <c r="C65" s="36"/>
@@ -2432,7 +2428,7 @@
       <c r="L65" s="39"/>
       <c r="M65" s="30"/>
     </row>
-    <row r="66" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A66" s="29"/>
       <c r="B66" s="30"/>
       <c r="C66" s="36"/>
@@ -2447,7 +2443,7 @@
       <c r="L66" s="39"/>
       <c r="M66" s="30"/>
     </row>
-    <row r="67" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A67" s="29"/>
       <c r="B67" s="30"/>
       <c r="C67" s="36"/>
@@ -2462,7 +2458,7 @@
       <c r="L67" s="39"/>
       <c r="M67" s="30"/>
     </row>
-    <row r="68" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A68" s="29"/>
       <c r="B68" s="30"/>
       <c r="C68" s="36"/>
@@ -2477,7 +2473,7 @@
       <c r="L68" s="39"/>
       <c r="M68" s="30"/>
     </row>
-    <row r="69" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A69" s="29"/>
       <c r="B69" s="30"/>
       <c r="C69" s="36"/>
@@ -2492,7 +2488,7 @@
       <c r="L69" s="39"/>
       <c r="M69" s="30"/>
     </row>
-    <row r="70" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A70" s="29"/>
       <c r="B70" s="30"/>
       <c r="C70" s="36"/>
@@ -2507,7 +2503,7 @@
       <c r="L70" s="39"/>
       <c r="M70" s="30"/>
     </row>
-    <row r="71" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A71" s="29"/>
       <c r="B71" s="30"/>
       <c r="C71" s="36"/>
@@ -2522,7 +2518,7 @@
       <c r="L71" s="39"/>
       <c r="M71" s="30"/>
     </row>
-    <row r="72" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A72" s="29"/>
       <c r="B72" s="30"/>
       <c r="C72" s="36"/>
@@ -2537,7 +2533,7 @@
       <c r="L72" s="39"/>
       <c r="M72" s="30"/>
     </row>
-    <row r="73" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A73" s="29"/>
       <c r="B73" s="30"/>
       <c r="C73" s="36"/>
@@ -2552,7 +2548,7 @@
       <c r="L73" s="39"/>
       <c r="M73" s="30"/>
     </row>
-    <row r="74" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A74" s="29"/>
       <c r="B74" s="30"/>
       <c r="C74" s="36"/>
@@ -2567,7 +2563,7 @@
       <c r="L74" s="39"/>
       <c r="M74" s="30"/>
     </row>
-    <row r="75" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A75" s="29"/>
       <c r="B75" s="30"/>
       <c r="C75" s="36"/>
@@ -2582,7 +2578,7 @@
       <c r="L75" s="39"/>
       <c r="M75" s="30"/>
     </row>
-    <row r="76" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A76" s="29"/>
       <c r="B76" s="30"/>
       <c r="C76" s="29"/>
@@ -2597,15 +2593,15 @@
       <c r="L76" s="35"/>
       <c r="M76" s="4"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D77" s="5"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B78" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>16</v>
       </c>
@@ -2613,7 +2609,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>18</v>
       </c>
@@ -2621,7 +2617,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>20</v>
       </c>
@@ -2629,7 +2625,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>22</v>
       </c>
@@ -2637,69 +2633,69 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="2:3" ht="31" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C85" s="16"/>
     </row>
-    <row r="86" spans="2:3" ht="31" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C86" s="17"/>
     </row>
-    <row r="87" spans="2:3" ht="31" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C87" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="K5:K7 K9:K35">
-    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="13" stopIfTrue="1" operator="equal">
       <formula>"J"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="14" stopIfTrue="1" operator="equal">
       <formula>"K"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="15" stopIfTrue="1" operator="equal">
       <formula>"L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36">
-    <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="10" stopIfTrue="1" operator="equal">
       <formula>"J"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="11" stopIfTrue="1" operator="equal">
       <formula>"K"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="12" stopIfTrue="1" operator="equal">
       <formula>"L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K37">
-    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="7" stopIfTrue="1" operator="equal">
       <formula>"J"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="8" stopIfTrue="1" operator="equal">
       <formula>"K"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="9" stopIfTrue="1" operator="equal">
       <formula>"L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K76">
-    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="4" stopIfTrue="1" operator="equal">
       <formula>"J"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="5" stopIfTrue="1" operator="equal">
       <formula>"K"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="6" stopIfTrue="1" operator="equal">
       <formula>"L"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38:K75">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" stopIfTrue="1" operator="equal">
       <formula>"J"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="2" stopIfTrue="1" operator="equal">
       <formula>"K"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="3" stopIfTrue="1" operator="equal">
       <formula>"L"</formula>
     </cfRule>
   </conditionalFormatting>
